--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il4ra.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Il4-Il4ra.xlsx
@@ -534,22 +534,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H2">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I2">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J2">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>31.05653266666667</v>
+        <v>32.67074033333333</v>
       </c>
       <c r="N2">
-        <v>93.16959800000001</v>
+        <v>98.012221</v>
       </c>
       <c r="O2">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308363</v>
       </c>
       <c r="P2">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308362</v>
       </c>
       <c r="Q2">
-        <v>5.469127867842889</v>
+        <v>3.214158324240111</v>
       </c>
       <c r="R2">
-        <v>49.222150810586</v>
+        <v>28.927424918161</v>
       </c>
       <c r="S2">
-        <v>0.007785436386337319</v>
+        <v>0.005328685476782817</v>
       </c>
       <c r="T2">
-        <v>0.007785436386337318</v>
+        <v>0.005328685476782814</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -596,22 +596,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H3">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I3">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J3">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>104.485977</v>
       </c>
       <c r="O3">
-        <v>0.2220614298228451</v>
+        <v>0.220372453487869</v>
       </c>
       <c r="P3">
-        <v>0.2220614298228451</v>
+        <v>0.2203724534878689</v>
       </c>
       <c r="Q3">
-        <v>6.133408116770999</v>
+        <v>3.426455081972999</v>
       </c>
       <c r="R3">
-        <v>55.200673050939</v>
+        <v>30.838095737757</v>
       </c>
       <c r="S3">
-        <v>0.008731055458646542</v>
+        <v>0.005680647805821718</v>
       </c>
       <c r="T3">
-        <v>0.008731055458646542</v>
+        <v>0.005680647805821716</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -658,22 +658,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H4">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I4">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J4">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>47.60663333333333</v>
+        <v>48.2794</v>
       </c>
       <c r="N4">
-        <v>142.8199</v>
+        <v>144.8382</v>
       </c>
       <c r="O4">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="P4">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="Q4">
-        <v>8.383639212144443</v>
+        <v>4.749743465133333</v>
       </c>
       <c r="R4">
-        <v>75.45275290929999</v>
+        <v>42.7476911862</v>
       </c>
       <c r="S4">
-        <v>0.01193431408980703</v>
+        <v>0.007874499781240189</v>
       </c>
       <c r="T4">
-        <v>0.01193431408980703</v>
+        <v>0.007874499781240185</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -720,22 +720,22 @@
         <v>23</v>
       </c>
       <c r="E5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G5">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H5">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I5">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J5">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>3.06938</v>
+        <v>2.990906</v>
       </c>
       <c r="N5">
-        <v>9.20814</v>
+        <v>8.972718</v>
       </c>
       <c r="O5">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="P5">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="Q5">
-        <v>0.5405249798866667</v>
+        <v>0.2942463292486667</v>
       </c>
       <c r="R5">
-        <v>4.86472481898</v>
+        <v>2.648216963238</v>
       </c>
       <c r="S5">
-        <v>0.0007694504403302042</v>
+        <v>0.0004878247998672305</v>
       </c>
       <c r="T5">
-        <v>0.0007694504403302041</v>
+        <v>0.0004878247998672303</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -782,22 +782,22 @@
         <v>24</v>
       </c>
       <c r="E6">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F6">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G6">
-        <v>0.1761023333333333</v>
+        <v>0.09838033333333333</v>
       </c>
       <c r="H6">
-        <v>0.528307</v>
+        <v>0.295141</v>
       </c>
       <c r="I6">
-        <v>0.03931819886781759</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="J6">
-        <v>0.03931819886781758</v>
+        <v>0.0257774858695505</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>40.28124633333334</v>
+        <v>39.27481633333333</v>
       </c>
       <c r="N6">
-        <v>120.843739</v>
+        <v>117.824449</v>
       </c>
       <c r="O6">
-        <v>0.2568261716831027</v>
+        <v>0.2485047625767647</v>
       </c>
       <c r="P6">
-        <v>0.2568261716831026</v>
+        <v>0.2485047625767646</v>
       </c>
       <c r="Q6">
-        <v>7.093621468874778</v>
+        <v>3.863869522478778</v>
       </c>
       <c r="R6">
-        <v>63.842593219873</v>
+        <v>34.774825702309</v>
       </c>
       <c r="S6">
-        <v>0.01009794249269649</v>
+        <v>0.006405828005838554</v>
       </c>
       <c r="T6">
-        <v>0.01009794249269649</v>
+        <v>0.006405828005838552</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>5.057822</v>
       </c>
       <c r="I7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J7">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>31.05653266666667</v>
+        <v>32.67074033333333</v>
       </c>
       <c r="N7">
-        <v>93.16959800000001</v>
+        <v>98.012221</v>
       </c>
       <c r="O7">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308363</v>
       </c>
       <c r="P7">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308362</v>
       </c>
       <c r="Q7">
-        <v>52.35947138839511</v>
+        <v>55.08092973807355</v>
       </c>
       <c r="R7">
-        <v>471.235242495556</v>
+        <v>495.728367642662</v>
       </c>
       <c r="S7">
-        <v>0.07453497953730953</v>
+        <v>0.09131751479988418</v>
       </c>
       <c r="T7">
-        <v>0.07453497953730953</v>
+        <v>0.09131751479988416</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>5.057822</v>
       </c>
       <c r="I8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J8">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>104.485977</v>
       </c>
       <c r="O8">
-        <v>0.2220614298228451</v>
+        <v>0.220372453487869</v>
       </c>
       <c r="P8">
-        <v>0.2220614298228451</v>
+        <v>0.2203724534878689</v>
       </c>
       <c r="Q8">
         <v>58.71905257356599</v>
@@ -948,10 +948,10 @@
         <v>528.471473162094</v>
       </c>
       <c r="S8">
-        <v>0.08358799785344992</v>
+        <v>0.09734908212189025</v>
       </c>
       <c r="T8">
-        <v>0.08358799785344993</v>
+        <v>0.09734908212189024</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>5.057822</v>
       </c>
       <c r="I9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J9">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>47.60663333333333</v>
+        <v>48.2794</v>
       </c>
       <c r="N9">
-        <v>142.8199</v>
+        <v>144.8382</v>
       </c>
       <c r="O9">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="P9">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="Q9">
-        <v>80.26195913975553</v>
+        <v>81.39620382226667</v>
       </c>
       <c r="R9">
-        <v>722.3576322577999</v>
+        <v>732.5658344003999</v>
       </c>
       <c r="S9">
-        <v>0.1142548487117074</v>
+        <v>0.1349450541691998</v>
       </c>
       <c r="T9">
-        <v>0.1142548487117074</v>
+        <v>0.1349450541691998</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>5.057822</v>
       </c>
       <c r="I10">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J10">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>3.06938</v>
+        <v>2.990906</v>
       </c>
       <c r="N10">
-        <v>9.20814</v>
+        <v>8.972718</v>
       </c>
       <c r="O10">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="P10">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="Q10">
-        <v>5.174792563453333</v>
+        <v>5.042490055577334</v>
       </c>
       <c r="R10">
-        <v>46.57313307108</v>
+        <v>45.382410500196</v>
       </c>
       <c r="S10">
-        <v>0.007366442929985394</v>
+        <v>0.008359838195689773</v>
       </c>
       <c r="T10">
-        <v>0.007366442929985394</v>
+        <v>0.00835983819568977</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>5.057822</v>
       </c>
       <c r="I11">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="J11">
-        <v>0.376418353786762</v>
+        <v>0.4417479616037814</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>40.28124633333334</v>
+        <v>39.27481633333333</v>
       </c>
       <c r="N11">
-        <v>120.843739</v>
+        <v>117.824449</v>
       </c>
       <c r="O11">
-        <v>0.2568261716831027</v>
+        <v>0.2485047625767647</v>
       </c>
       <c r="P11">
-        <v>0.2568261716831026</v>
+        <v>0.2485047625767646</v>
       </c>
       <c r="Q11">
-        <v>67.91179129738423</v>
+        <v>66.21501003223088</v>
       </c>
       <c r="R11">
-        <v>611.206121676458</v>
+        <v>595.9350902900779</v>
       </c>
       <c r="S11">
-        <v>0.09667408475430982</v>
+        <v>0.1097764723171175</v>
       </c>
       <c r="T11">
-        <v>0.09667408475430979</v>
+        <v>0.1097764723171174</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H12">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I12">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J12">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>31.05653266666667</v>
+        <v>32.67074033333333</v>
       </c>
       <c r="N12">
-        <v>93.16959800000001</v>
+        <v>98.012221</v>
       </c>
       <c r="O12">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308363</v>
       </c>
       <c r="P12">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308362</v>
       </c>
       <c r="Q12">
-        <v>43.508711552432</v>
+        <v>7.943498463166</v>
       </c>
       <c r="R12">
-        <v>391.578403971888</v>
+        <v>71.49148616849399</v>
       </c>
       <c r="S12">
-        <v>0.06193570789131342</v>
+        <v>0.01316935901268228</v>
       </c>
       <c r="T12">
-        <v>0.0619357078913134</v>
+        <v>0.01316935901268228</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H13">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I13">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J13">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>104.485977</v>
       </c>
       <c r="O13">
-        <v>0.2220614298228451</v>
+        <v>0.220372453487869</v>
       </c>
       <c r="P13">
-        <v>0.2220614298228451</v>
+        <v>0.2203724534878689</v>
       </c>
       <c r="Q13">
-        <v>48.79327948336799</v>
+        <v>8.468170491941999</v>
       </c>
       <c r="R13">
-        <v>439.1395153503119</v>
+        <v>76.213534427478</v>
       </c>
       <c r="S13">
-        <v>0.06945841872378253</v>
+        <v>0.0140392017328519</v>
       </c>
       <c r="T13">
-        <v>0.06945841872378253</v>
+        <v>0.0140392017328519</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H14">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I14">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J14">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>47.60663333333333</v>
+        <v>48.2794</v>
       </c>
       <c r="N14">
-        <v>142.8199</v>
+        <v>144.8382</v>
       </c>
       <c r="O14">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="P14">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="Q14">
-        <v>66.69460818159999</v>
+        <v>11.7385567572</v>
       </c>
       <c r="R14">
-        <v>600.2514736343999</v>
+        <v>105.6470108148</v>
       </c>
       <c r="S14">
-        <v>0.09494139501886219</v>
+        <v>0.01946110633030833</v>
       </c>
       <c r="T14">
-        <v>0.09494139501886216</v>
+        <v>0.01946110633030832</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H15">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I15">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J15">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>3.06938</v>
+        <v>2.990906</v>
       </c>
       <c r="N15">
-        <v>9.20814</v>
+        <v>8.972718</v>
       </c>
       <c r="O15">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="P15">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="Q15">
-        <v>4.30005404976</v>
+        <v>0.7272029030280001</v>
       </c>
       <c r="R15">
-        <v>38.70048644784</v>
+        <v>6.544826127252001</v>
       </c>
       <c r="S15">
-        <v>0.006121231404930165</v>
+        <v>0.001205614396408347</v>
       </c>
       <c r="T15">
-        <v>0.006121231404930164</v>
+        <v>0.001205614396408347</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>1.400952</v>
+        <v>0.243138</v>
       </c>
       <c r="H16">
-        <v>4.202856</v>
+        <v>0.729414</v>
       </c>
       <c r="I16">
-        <v>0.3127892078295392</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="J16">
-        <v>0.3127892078295391</v>
+        <v>0.06370669977418356</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>40.28124633333334</v>
+        <v>39.27481633333333</v>
       </c>
       <c r="N16">
-        <v>120.843739</v>
+        <v>117.824449</v>
       </c>
       <c r="O16">
-        <v>0.2568261716831027</v>
+        <v>0.2485047625767647</v>
       </c>
       <c r="P16">
-        <v>0.2568261716831026</v>
+        <v>0.2485047625767646</v>
       </c>
       <c r="Q16">
-        <v>56.432092613176</v>
+        <v>9.549200293654</v>
       </c>
       <c r="R16">
-        <v>507.888833518584</v>
+        <v>85.94280264288601</v>
       </c>
       <c r="S16">
-        <v>0.08033245479065092</v>
+        <v>0.01583141830193271</v>
       </c>
       <c r="T16">
-        <v>0.08033245479065088</v>
+        <v>0.01583141830193271</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H17">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J17">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>31.05653266666667</v>
+        <v>32.67074033333333</v>
       </c>
       <c r="N17">
-        <v>93.16959800000001</v>
+        <v>98.012221</v>
       </c>
       <c r="O17">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308363</v>
       </c>
       <c r="P17">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308362</v>
       </c>
       <c r="Q17">
-        <v>25.82070147221578</v>
+        <v>21.56596658428012</v>
       </c>
       <c r="R17">
-        <v>232.386313249942</v>
+        <v>194.093699258521</v>
       </c>
       <c r="S17">
-        <v>0.03675639583132107</v>
+        <v>0.03575376236564384</v>
       </c>
       <c r="T17">
-        <v>0.03675639583132107</v>
+        <v>0.03575376236564383</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H18">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I18">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J18">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>104.485977</v>
       </c>
       <c r="O18">
-        <v>0.2220614298228451</v>
+        <v>0.220372453487869</v>
       </c>
       <c r="P18">
-        <v>0.2220614298228451</v>
+        <v>0.2203724534878689</v>
       </c>
       <c r="Q18">
-        <v>28.95688376963699</v>
+        <v>22.990409415453</v>
       </c>
       <c r="R18">
-        <v>260.611953926733</v>
+        <v>206.913684739077</v>
       </c>
       <c r="S18">
-        <v>0.0412208275218093</v>
+        <v>0.03811531617266511</v>
       </c>
       <c r="T18">
-        <v>0.04122082752180931</v>
+        <v>0.03811531617266511</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H19">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I19">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J19">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>47.60663333333333</v>
+        <v>48.2794</v>
       </c>
       <c r="N19">
-        <v>142.8199</v>
+        <v>144.8382</v>
       </c>
       <c r="O19">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="P19">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="Q19">
-        <v>39.58061515078888</v>
+        <v>31.86924803313334</v>
       </c>
       <c r="R19">
-        <v>356.2255363570999</v>
+        <v>286.8232322982</v>
       </c>
       <c r="S19">
-        <v>0.05634396723478072</v>
+        <v>0.05283535595288261</v>
       </c>
       <c r="T19">
-        <v>0.05634396723478072</v>
+        <v>0.0528353559528826</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H20">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I20">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J20">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>3.06938</v>
+        <v>2.990906</v>
       </c>
       <c r="N20">
-        <v>9.20814</v>
+        <v>8.972718</v>
       </c>
       <c r="O20">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="P20">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="Q20">
-        <v>2.551912202673333</v>
+        <v>1.974298047568667</v>
       </c>
       <c r="R20">
-        <v>22.96720982406</v>
+        <v>17.768682428118</v>
       </c>
       <c r="S20">
-        <v>0.003632709016413496</v>
+        <v>0.003273147204224003</v>
       </c>
       <c r="T20">
-        <v>0.003632709016413496</v>
+        <v>0.003273147204224002</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>0.8314096666666666</v>
+        <v>0.6601003333333334</v>
       </c>
       <c r="H21">
-        <v>2.494229</v>
+        <v>1.980301</v>
       </c>
       <c r="I21">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="J21">
-        <v>0.1856280379474014</v>
+        <v>0.1729586233188772</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>40.28124633333334</v>
+        <v>39.27481633333333</v>
       </c>
       <c r="N21">
-        <v>120.843739</v>
+        <v>117.824449</v>
       </c>
       <c r="O21">
-        <v>0.2568261716831027</v>
+        <v>0.2485047625767647</v>
       </c>
       <c r="P21">
-        <v>0.2568261716831026</v>
+        <v>0.2485047625767646</v>
       </c>
       <c r="Q21">
-        <v>33.49021758691455</v>
+        <v>25.92531935323878</v>
       </c>
       <c r="R21">
-        <v>301.411958282231</v>
+        <v>233.327874179149</v>
       </c>
       <c r="S21">
-        <v>0.0476741383430768</v>
+        <v>0.04298104162346165</v>
       </c>
       <c r="T21">
-        <v>0.04767413834307679</v>
+        <v>0.04298104162346164</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1774,22 +1774,22 @@
         <v>20</v>
       </c>
       <c r="E22">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F22">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G22">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H22">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I22">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J22">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>31.05653266666667</v>
+        <v>32.67074033333333</v>
       </c>
       <c r="N22">
-        <v>93.16959800000001</v>
+        <v>98.012221</v>
       </c>
       <c r="O22">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308363</v>
       </c>
       <c r="P22">
-        <v>0.1980110129792794</v>
+        <v>0.2067185878308362</v>
       </c>
       <c r="Q22">
-        <v>11.94113328855778</v>
+        <v>36.88403523844745</v>
       </c>
       <c r="R22">
-        <v>107.47019959702</v>
+        <v>331.956317146027</v>
       </c>
       <c r="S22">
-        <v>0.01699849333299811</v>
+        <v>0.06114926617584315</v>
       </c>
       <c r="T22">
-        <v>0.01699849333299811</v>
+        <v>0.06114926617584314</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1836,22 +1836,22 @@
         <v>21</v>
       </c>
       <c r="E23">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F23">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G23">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H23">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I23">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J23">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>104.485977</v>
       </c>
       <c r="O23">
-        <v>0.2220614298228451</v>
+        <v>0.220372453487869</v>
       </c>
       <c r="P23">
-        <v>0.2220614298228451</v>
+        <v>0.2203724534878689</v>
       </c>
       <c r="Q23">
-        <v>13.39150328997</v>
+        <v>39.320244131511</v>
       </c>
       <c r="R23">
-        <v>120.52352960973</v>
+        <v>353.882197183599</v>
       </c>
       <c r="S23">
-        <v>0.01906313026515681</v>
+        <v>0.06518820565463999</v>
       </c>
       <c r="T23">
-        <v>0.01906313026515681</v>
+        <v>0.06518820565463998</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1898,22 +1898,22 @@
         <v>22</v>
       </c>
       <c r="E24">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F24">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G24">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H24">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I24">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J24">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>47.60663333333333</v>
+        <v>48.2794</v>
       </c>
       <c r="N24">
-        <v>142.8199</v>
+        <v>144.8382</v>
       </c>
       <c r="O24">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="P24">
-        <v>0.303531556212139</v>
+        <v>0.3054797438776561</v>
       </c>
       <c r="Q24">
-        <v>18.30459182788888</v>
+        <v>54.50562407593334</v>
       </c>
       <c r="R24">
-        <v>164.741326451</v>
+        <v>490.5506166834001</v>
       </c>
       <c r="S24">
-        <v>0.02605703115698167</v>
+        <v>0.09036372764402519</v>
       </c>
       <c r="T24">
-        <v>0.02605703115698166</v>
+        <v>0.09036372764402517</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1960,22 +1960,22 @@
         <v>23</v>
       </c>
       <c r="E25">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F25">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G25">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H25">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I25">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J25">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>3.06938</v>
+        <v>2.990906</v>
       </c>
       <c r="N25">
-        <v>9.20814</v>
+        <v>8.972718</v>
       </c>
       <c r="O25">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="P25">
-        <v>0.01956982930263391</v>
+        <v>0.01892445222687409</v>
       </c>
       <c r="Q25">
-        <v>1.180166378733333</v>
+        <v>3.376620216540667</v>
       </c>
       <c r="R25">
-        <v>10.6214974086</v>
+        <v>30.389581948866</v>
       </c>
       <c r="S25">
-        <v>0.001679995510974655</v>
+        <v>0.00559802763068474</v>
       </c>
       <c r="T25">
-        <v>0.001679995510974655</v>
+        <v>0.005598027630684738</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2022,22 +2022,22 @@
         <v>24</v>
       </c>
       <c r="E26">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F26">
-        <v>0.3333333333333333</v>
+        <v>1</v>
       </c>
       <c r="G26">
-        <v>0.3844966666666667</v>
+        <v>1.128962333333333</v>
       </c>
       <c r="H26">
-        <v>1.15349</v>
+        <v>3.386887</v>
       </c>
       <c r="I26">
-        <v>0.0858462015684799</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="J26">
-        <v>0.08584620156847987</v>
+        <v>0.2958092294336073</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>40.28124633333334</v>
+        <v>39.27481633333333</v>
       </c>
       <c r="N26">
-        <v>120.843739</v>
+        <v>117.824449</v>
       </c>
       <c r="O26">
-        <v>0.2568261716831027</v>
+        <v>0.2485047625767647</v>
       </c>
       <c r="P26">
-        <v>0.2568261716831026</v>
+        <v>0.2485047625767646</v>
       </c>
       <c r="Q26">
-        <v>15.48800494434556</v>
+        <v>44.33978828891811</v>
       </c>
       <c r="R26">
-        <v>139.39204449911</v>
+        <v>399.058094600263</v>
       </c>
       <c r="S26">
-        <v>0.02204755130236866</v>
+        <v>0.0735100023284143</v>
       </c>
       <c r="T26">
-        <v>0.02204755130236865</v>
+        <v>0.07351000232841429</v>
       </c>
     </row>
   </sheetData>
